--- a/Results/VIF_Results.xlsx
+++ b/Results/VIF_Results.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
-    <t>CHCPIY_ECI</t>
-  </si>
-  <si>
-    <t>CHJOB_ECI</t>
-  </si>
-  <si>
-    <t>CHPMI_ECI</t>
-  </si>
-  <si>
-    <t>CNCPI_ECI</t>
-  </si>
-  <si>
-    <t>CNPMIB_ECI</t>
-  </si>
-  <si>
-    <t>EUHICY_ECI</t>
-  </si>
-  <si>
-    <t>EUUNR_ECI</t>
-  </si>
-  <si>
-    <t>RUCPIY_ECI</t>
-  </si>
-  <si>
-    <t>RUUNR_ECI</t>
-  </si>
-  <si>
-    <t>USCPI_ECI</t>
-  </si>
-  <si>
-    <t>USPMI_ECI</t>
-  </si>
-  <si>
-    <t>USUNR_ECI</t>
+    <t>CHCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>CHJOB_DIFF</t>
+  </si>
+  <si>
+    <t>CHPMI_LOG</t>
+  </si>
+  <si>
+    <t>CNCPI_DIFF</t>
+  </si>
+  <si>
+    <t>CNPMIB_LOG</t>
+  </si>
+  <si>
+    <t>EUHICY_DIFF</t>
+  </si>
+  <si>
+    <t>EUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>RUCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>RUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>USCPI_DIFF</t>
+  </si>
+  <si>
+    <t>USPMI_LOG</t>
+  </si>
+  <si>
+    <t>USUNR_DIFF</t>
   </si>
   <si>
     <t>dep_col</t>
@@ -462,37 +462,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>391.51</v>
+        <v>2.12</v>
       </c>
       <c r="D2">
-        <v>442.65</v>
+        <v>1.19</v>
       </c>
       <c r="E2">
-        <v>9.119999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="F2">
-        <v>622.1900000000001</v>
+        <v>1.31</v>
       </c>
       <c r="G2">
-        <v>5.57</v>
+        <v>1.3</v>
       </c>
       <c r="H2">
-        <v>68.28</v>
+        <v>1.27</v>
       </c>
       <c r="I2">
-        <v>7.6</v>
+        <v>1.06</v>
       </c>
       <c r="J2">
-        <v>322.83</v>
+        <v>1.42</v>
       </c>
       <c r="K2">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="L2">
-        <v>818.08</v>
+        <v>1.66</v>
       </c>
       <c r="M2">
-        <v>27.99</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -500,37 +500,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.71</v>
+        <v>1.51</v>
       </c>
       <c r="D3">
-        <v>331.85</v>
+        <v>1.21</v>
       </c>
       <c r="E3">
-        <v>8.18</v>
+        <v>1.15</v>
       </c>
       <c r="F3">
-        <v>572.29</v>
+        <v>1.09</v>
       </c>
       <c r="G3">
-        <v>4.59</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
-        <v>61.78</v>
+        <v>1.27</v>
       </c>
       <c r="I3">
-        <v>9.59</v>
+        <v>1.07</v>
       </c>
       <c r="J3">
-        <v>371.78</v>
+        <v>1.47</v>
       </c>
       <c r="K3">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="L3">
-        <v>745.34</v>
+        <v>1.65</v>
       </c>
       <c r="M3">
-        <v>24.13</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -538,37 +538,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.33</v>
+        <v>1.6</v>
       </c>
       <c r="C4">
-        <v>276.99</v>
+        <v>2.27</v>
       </c>
       <c r="E4">
-        <v>9.18</v>
+        <v>1.18</v>
       </c>
       <c r="F4">
-        <v>623.02</v>
+        <v>1.27</v>
       </c>
       <c r="G4">
-        <v>5.16</v>
+        <v>1.42</v>
       </c>
       <c r="H4">
-        <v>67.2</v>
+        <v>1.29</v>
       </c>
       <c r="I4">
-        <v>9.59</v>
+        <v>1.06</v>
       </c>
       <c r="J4">
-        <v>402.72</v>
+        <v>1.46</v>
       </c>
       <c r="K4">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
-        <v>489.2</v>
+        <v>1.68</v>
       </c>
       <c r="M4">
-        <v>26.02</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -576,37 +576,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.02</v>
+        <v>1.62</v>
       </c>
       <c r="C5">
-        <v>367.28</v>
+        <v>2.21</v>
       </c>
       <c r="D5">
-        <v>493.86</v>
+        <v>1.2</v>
       </c>
       <c r="F5">
-        <v>487.29</v>
+        <v>1.33</v>
       </c>
       <c r="G5">
-        <v>5.59</v>
+        <v>1.41</v>
       </c>
       <c r="H5">
-        <v>63.82</v>
+        <v>1.3</v>
       </c>
       <c r="I5">
-        <v>8.56</v>
+        <v>1.05</v>
       </c>
       <c r="J5">
-        <v>406.13</v>
+        <v>1.46</v>
       </c>
       <c r="K5">
-        <v>2.28</v>
+        <v>1.58</v>
       </c>
       <c r="L5">
-        <v>809.03</v>
+        <v>1.63</v>
       </c>
       <c r="M5">
-        <v>28.76</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -614,37 +614,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.99</v>
+        <v>1.59</v>
       </c>
       <c r="C6">
-        <v>375.12</v>
+        <v>1.86</v>
       </c>
       <c r="D6">
-        <v>489.26</v>
+        <v>1.15</v>
       </c>
       <c r="E6">
-        <v>7.11</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
-        <v>5.37</v>
+        <v>1.42</v>
       </c>
       <c r="H6">
-        <v>69.59</v>
+        <v>1.28</v>
       </c>
       <c r="I6">
-        <v>9.35</v>
+        <v>1.08</v>
       </c>
       <c r="J6">
-        <v>385.96</v>
+        <v>1.46</v>
       </c>
       <c r="K6">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="L6">
-        <v>607.28</v>
+        <v>1.68</v>
       </c>
       <c r="M6">
-        <v>28.75</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -652,37 +652,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.03</v>
+        <v>1.49</v>
       </c>
       <c r="C7">
-        <v>338.22</v>
+        <v>2.25</v>
       </c>
       <c r="D7">
-        <v>455.79</v>
+        <v>1.21</v>
       </c>
       <c r="E7">
-        <v>9.18</v>
+        <v>1.18</v>
       </c>
       <c r="F7">
-        <v>603.99</v>
+        <v>1.33</v>
       </c>
       <c r="H7">
-        <v>66.59</v>
+        <v>1.29</v>
       </c>
       <c r="I7">
-        <v>9.59</v>
+        <v>1.08</v>
       </c>
       <c r="J7">
-        <v>403.29</v>
+        <v>1.47</v>
       </c>
       <c r="K7">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>832.65</v>
+        <v>1.68</v>
       </c>
       <c r="M7">
-        <v>22.23</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -690,37 +690,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.9</v>
+        <v>1.58</v>
       </c>
       <c r="C8">
-        <v>364.58</v>
+        <v>2.22</v>
       </c>
       <c r="D8">
-        <v>475.11</v>
+        <v>1.19</v>
       </c>
       <c r="E8">
-        <v>8.390000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="F8">
-        <v>626.59</v>
+        <v>1.31</v>
       </c>
       <c r="G8">
-        <v>5.33</v>
+        <v>1.41</v>
       </c>
       <c r="I8">
-        <v>7.61</v>
+        <v>1.08</v>
       </c>
       <c r="J8">
-        <v>408.71</v>
+        <v>1.37</v>
       </c>
       <c r="K8">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="L8">
-        <v>828.24</v>
+        <v>1.61</v>
       </c>
       <c r="M8">
-        <v>28.67</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -728,37 +728,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.59</v>
+        <v>1.6</v>
       </c>
       <c r="C9">
-        <v>411.89</v>
+        <v>2.26</v>
       </c>
       <c r="D9">
-        <v>493.77</v>
+        <v>1.18</v>
       </c>
       <c r="E9">
-        <v>8.19</v>
+        <v>1.16</v>
       </c>
       <c r="F9">
-        <v>612.95</v>
+        <v>1.33</v>
       </c>
       <c r="G9">
-        <v>5.59</v>
+        <v>1.42</v>
       </c>
       <c r="H9">
-        <v>55.41</v>
+        <v>1.3</v>
       </c>
       <c r="J9">
-        <v>389.78</v>
+        <v>1.47</v>
       </c>
       <c r="K9">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="L9">
-        <v>837.13</v>
+        <v>1.68</v>
       </c>
       <c r="M9">
-        <v>24.64</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -766,37 +766,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.56</v>
+        <v>1.57</v>
       </c>
       <c r="C10">
-        <v>373.55</v>
+        <v>2.27</v>
       </c>
       <c r="D10">
-        <v>484.78</v>
+        <v>1.2</v>
       </c>
       <c r="E10">
-        <v>9.09</v>
+        <v>1.18</v>
       </c>
       <c r="F10">
-        <v>591.64</v>
+        <v>1.33</v>
       </c>
       <c r="G10">
-        <v>5.5</v>
+        <v>1.42</v>
       </c>
       <c r="H10">
-        <v>69.58</v>
+        <v>1.22</v>
       </c>
       <c r="I10">
-        <v>9.119999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="K10">
-        <v>2.31</v>
+        <v>1.62</v>
       </c>
       <c r="L10">
-        <v>735.35</v>
+        <v>1.65</v>
       </c>
       <c r="M10">
-        <v>28.55</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -804,37 +804,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.06</v>
+        <v>1.58</v>
       </c>
       <c r="C11">
-        <v>395.02</v>
+        <v>2.24</v>
       </c>
       <c r="D11">
-        <v>493.71</v>
+        <v>1.19</v>
       </c>
       <c r="E11">
-        <v>9.039999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F11">
-        <v>562.91</v>
+        <v>1.33</v>
       </c>
       <c r="G11">
-        <v>4.93</v>
+        <v>1.31</v>
       </c>
       <c r="H11">
-        <v>64.69</v>
+        <v>1.27</v>
       </c>
       <c r="I11">
-        <v>9.48</v>
+        <v>1.08</v>
       </c>
       <c r="J11">
-        <v>409.4</v>
+        <v>1.47</v>
       </c>
       <c r="L11">
-        <v>804.92</v>
+        <v>1.64</v>
       </c>
       <c r="M11">
-        <v>28.54</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -842,37 +842,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.88</v>
+        <v>1.59</v>
       </c>
       <c r="C12">
-        <v>365.72</v>
+        <v>2.23</v>
       </c>
       <c r="D12">
-        <v>287.58</v>
+        <v>1.2</v>
       </c>
       <c r="E12">
-        <v>8.84</v>
+        <v>1.14</v>
       </c>
       <c r="F12">
-        <v>454.59</v>
+        <v>1.33</v>
       </c>
       <c r="G12">
-        <v>5.54</v>
+        <v>1.42</v>
       </c>
       <c r="H12">
-        <v>68.86</v>
+        <v>1.25</v>
       </c>
       <c r="I12">
-        <v>9.56</v>
+        <v>1.08</v>
       </c>
       <c r="J12">
-        <v>359.1</v>
+        <v>1.44</v>
       </c>
       <c r="K12">
-        <v>2.22</v>
+        <v>1.58</v>
       </c>
       <c r="M12">
-        <v>28.54</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -880,37 +880,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.86</v>
+        <v>1.6</v>
       </c>
       <c r="C13">
-        <v>345.39</v>
+        <v>1.75</v>
       </c>
       <c r="D13">
-        <v>446.08</v>
+        <v>1.17</v>
       </c>
       <c r="E13">
-        <v>9.16</v>
+        <v>1.16</v>
       </c>
       <c r="F13">
-        <v>627.72</v>
+        <v>1.27</v>
       </c>
       <c r="G13">
-        <v>4.31</v>
+        <v>1.41</v>
       </c>
       <c r="H13">
-        <v>69.53</v>
+        <v>1.3</v>
       </c>
       <c r="I13">
-        <v>8.210000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="J13">
-        <v>406.65</v>
+        <v>1.28</v>
       </c>
       <c r="K13">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="L13">
-        <v>832.39</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Results/VIF_Results.xlsx
+++ b/Results/VIF_Results.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ac161be9f08974/Dokumente/GitHub/AQM/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_3B4FC2960BF76FFC05FC9890E22D62B120BBCDD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85FFDDA2-3BF6-4356-ABA3-F3FFE51F682F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4545" yWindow="4920" windowWidth="19860" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,14 +58,14 @@
     <t>USUNR_DIFF</t>
   </si>
   <si>
-    <t>dep_col</t>
+    <t>Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,18 +76,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,22 +129,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +231,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +283,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,15 +476,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -457,461 +540,503 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <v>2.12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1.19</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1.18</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1.31</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1.3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>1.27</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1.06</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>1.42</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1.58</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1.66</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1.51</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>1.21</v>
       </c>
-      <c r="E3">
-        <v>1.15</v>
-      </c>
-      <c r="F3">
-        <v>1.09</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>1.27</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1.07</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>1.47</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1.6</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>1.65</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>1.86</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1.6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.27</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>1.18</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>1.27</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>1.42</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1.29</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.06</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>1.46</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1.6</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>1.68</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>2.35</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1.62</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2.21</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1.2</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>1.33</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1.41</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>1.3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1.05</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>1.46</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1.58</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>1.63</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>2.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.59</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1.86</v>
       </c>
-      <c r="D6">
-        <v>1.15</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E6" s="3">
         <v>1.18</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>1.42</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>1.28</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1.08</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1.46</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1.62</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>1.68</v>
       </c>
-      <c r="M6">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="M6" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1.49</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>2.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1.21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1.18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>1.33</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>1.29</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1.08</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1.47</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>1.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>1.68</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1.58</v>
       </c>
-      <c r="C8">
-        <v>2.22</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D8" s="3">
         <v>1.19</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1.18</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>1.31</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>1.41</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>1.08</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1.37</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1.57</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>1.61</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>2.41</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1.6</v>
       </c>
-      <c r="C9">
-        <v>2.26</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D9" s="3">
         <v>1.18</v>
       </c>
-      <c r="E9">
-        <v>1.16</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F9" s="3">
         <v>1.33</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>1.42</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>1.3</v>
       </c>
-      <c r="J9">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>1.47</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>1.62</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>1.68</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1.57</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>2.27</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1.2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1.18</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>1.33</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>1.42</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>1.22</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>1.08</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>1.62</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>1.65</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>2.11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.58</v>
       </c>
-      <c r="C11">
-        <v>2.24</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D11" s="3">
         <v>1.19</v>
       </c>
-      <c r="E11">
-        <v>1.16</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F11" s="3">
         <v>1.33</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1.31</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>1.27</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>1.08</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>1.47</v>
       </c>
-      <c r="L11">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>1.64</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>2.41</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1.59</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>2.23</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>1.2</v>
       </c>
-      <c r="E12">
-        <v>1.14</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F12" s="3">
         <v>1.33</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1.42</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>1.25</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>1.08</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>1.44</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>1.58</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>1.83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1.6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1.75</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1.17</v>
       </c>
-      <c r="E13">
-        <v>1.16</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F13" s="3">
         <v>1.27</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>1.41</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>1.3</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>1.08</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>1.28</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>1.62</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>1.28</v>
       </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/VIF_Results.xlsx
+++ b/Results/VIF_Results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ac161be9f08974/Dokumente/GitHub/AQM/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_3B4FC2960BF76FFC05FC9890E22D62B120BBCDD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85FFDDA2-3BF6-4356-ABA3-F3FFE51F682F}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4920" windowWidth="19860" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,14 +52,14 @@
     <t>USUNR_DIFF</t>
   </si>
   <si>
-    <t>Indicator</t>
+    <t>dep_col</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,30 +70,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,35 +111,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,27 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,31 +409,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -540,503 +457,461 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>2.12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1.19</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1.18</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>1.31</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>1.3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>1.27</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>1.06</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>1.42</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>1.58</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>1.66</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>1.51</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1.21</v>
       </c>
-      <c r="E3" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E3">
+        <v>1.15</v>
+      </c>
+      <c r="F3">
+        <v>1.09</v>
+      </c>
+      <c r="G3">
         <v>1.4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>1.27</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>1.07</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>1.47</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>1.6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>1.65</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>1.86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>2.27</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1.18</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1.27</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>1.42</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>1.29</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>1.06</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>1.46</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>1.6</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>1.68</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>2.35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1.62</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>2.21</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1.2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>1.33</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>1.41</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>1.3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>1.05</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>1.46</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>1.58</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>1.63</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>2.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1.59</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1.86</v>
       </c>
-      <c r="D6" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>1.15</v>
+      </c>
+      <c r="E6">
         <v>1.18</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>1.42</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>1.28</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>1.08</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>1.46</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>1.62</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>1.68</v>
       </c>
-      <c r="M6" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="M6">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1.49</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>2.25</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1.21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>1.18</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>1.33</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>1.29</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>1.08</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>1.47</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>1.5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>1.68</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1.58</v>
       </c>
-      <c r="C8" s="3">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8">
+        <v>2.22</v>
+      </c>
+      <c r="D8">
         <v>1.19</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>1.18</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1.31</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>1.41</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>1.08</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>1.37</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>1.57</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>1.61</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>2.41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1.6</v>
       </c>
-      <c r="C9" s="3">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9">
+        <v>2.26</v>
+      </c>
+      <c r="D9">
         <v>1.18</v>
       </c>
-      <c r="E9" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9">
+        <v>1.16</v>
+      </c>
+      <c r="F9">
         <v>1.33</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>1.42</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>1.3</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>1.47</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>1.62</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>1.68</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1.57</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>2.27</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1.2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1.18</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>1.33</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>1.42</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>1.22</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>1.08</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>1.62</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>1.65</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>2.11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1.58</v>
       </c>
-      <c r="C11" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11">
+        <v>2.24</v>
+      </c>
+      <c r="D11">
         <v>1.19</v>
       </c>
-      <c r="E11" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11">
+        <v>1.16</v>
+      </c>
+      <c r="F11">
         <v>1.33</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>1.31</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>1.27</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>1.08</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>1.47</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>1.64</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>2.41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1.59</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>2.23</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>1.2</v>
       </c>
-      <c r="E12" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12">
+        <v>1.14</v>
+      </c>
+      <c r="F12">
         <v>1.33</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>1.42</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>1.25</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>1.08</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>1.44</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>1.58</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>1.83</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1.6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>1.75</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>1.17</v>
       </c>
-      <c r="E13" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13">
+        <v>1.16</v>
+      </c>
+      <c r="F13">
         <v>1.27</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>1.41</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>1.3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>1.08</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>1.28</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>1.62</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>1.28</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
